--- a/Horario.xlsx
+++ b/Horario.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\PycharmProjects\Time-Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA9715E-3010-40C6-B785-38F1C32178E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECE90F5-EBB4-4425-AE63-E4FE9891CEFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Horario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1151,7 +1151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1532,12 +1532,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Horario.xlsx
+++ b/Horario.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\PycharmProjects\Time-Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECE90F5-EBB4-4425-AE63-E4FE9891CEFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13EC9EC-2542-467F-954C-469030F1A7D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Horario" sheetId="1" r:id="rId1"/>
+    <sheet name="Imputadas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="371">
   <si>
     <t>Dia</t>
   </si>
@@ -1091,9 +1092,6 @@
     <t>DOCOE-1027</t>
   </si>
   <si>
-    <t>Call con Salva</t>
-  </si>
-  <si>
     <t>DPS-10174</t>
   </si>
   <si>
@@ -1146,6 +1144,9 @@
   </si>
   <si>
     <t>Prometheus</t>
+  </si>
+  <si>
+    <t>Horas imputadas</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1219,6 +1220,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1535,7 +1537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2151" workbookViewId="0">
+      <selection activeCell="D2160" sqref="D2160"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -36538,9 +36542,7 @@
       <c r="D2205" s="4">
         <v>0.50694444444444442</v>
       </c>
-      <c r="E2205" s="1" t="s">
-        <v>352</v>
-      </c>
+      <c r="E2205" s="1"/>
     </row>
     <row r="2206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2206" s="3">
@@ -37132,7 +37134,7 @@
         <v>43915</v>
       </c>
       <c r="B2245" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C2245" s="4">
         <v>0.3611111111111111</v>
@@ -37147,7 +37149,7 @@
         <v>43915</v>
       </c>
       <c r="B2246" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C2246" s="4">
         <v>0.37152777777777773</v>
@@ -37162,7 +37164,7 @@
         <v>43915</v>
       </c>
       <c r="B2247" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C2247" s="4">
         <v>0.38194444444444442</v>
@@ -37192,7 +37194,7 @@
         <v>43915</v>
       </c>
       <c r="B2249" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C2249" s="4">
         <v>0.4236111111111111</v>
@@ -37222,7 +37224,7 @@
         <v>43915</v>
       </c>
       <c r="B2251" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C2251" s="4">
         <v>0.46180555555555558</v>
@@ -37252,7 +37254,7 @@
         <v>43915</v>
       </c>
       <c r="B2253" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2253" s="4">
         <v>0.4861111111111111</v>
@@ -37282,7 +37284,7 @@
         <v>43915</v>
       </c>
       <c r="B2255" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C2255" s="4">
         <v>0.55902777777777779</v>
@@ -37312,7 +37314,7 @@
         <v>43915</v>
       </c>
       <c r="B2257" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C2257" s="4">
         <v>0.63541666666666663</v>
@@ -37327,7 +37329,7 @@
         <v>43915</v>
       </c>
       <c r="B2258" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C2258" s="4">
         <v>0.65277777777777779</v>
@@ -37342,7 +37344,7 @@
         <v>43915</v>
       </c>
       <c r="B2259" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2259" s="4">
         <v>0.65972222222222221</v>
@@ -37372,7 +37374,7 @@
         <v>43915</v>
       </c>
       <c r="B2261" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C2261" s="4">
         <v>0.67013888888888884</v>
@@ -37541,7 +37543,7 @@
         <v>43917</v>
       </c>
       <c r="B2272" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2272" s="4">
         <v>0.3611111111111111</v>
@@ -37571,7 +37573,7 @@
         <v>43917</v>
       </c>
       <c r="B2274" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2274" s="4">
         <v>0.39583333333333331</v>
@@ -37601,7 +37603,7 @@
         <v>43917</v>
       </c>
       <c r="B2276" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2276" s="4">
         <v>0.47222222222222227</v>
@@ -37631,7 +37633,7 @@
         <v>43917</v>
       </c>
       <c r="B2278" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2278" s="4">
         <v>0.60763888888888895</v>
@@ -37738,7 +37740,7 @@
         <v>43920</v>
       </c>
       <c r="B2285" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2285" s="4">
         <v>0.54166666666666663</v>
@@ -37768,7 +37770,7 @@
         <v>43920</v>
       </c>
       <c r="B2287" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2287" s="4">
         <v>0.61458333333333337</v>
@@ -37815,7 +37817,7 @@
         <v>43921</v>
       </c>
       <c r="B2290" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2290" s="4">
         <v>0.36805555555555558</v>
@@ -37845,7 +37847,7 @@
         <v>43921</v>
       </c>
       <c r="B2292" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2292" s="4">
         <v>0.39930555555555558</v>
@@ -37905,7 +37907,7 @@
         <v>43921</v>
       </c>
       <c r="B2296" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2296" s="4">
         <v>0.45833333333333331</v>
@@ -37935,7 +37937,7 @@
         <v>43921</v>
       </c>
       <c r="B2298" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2298" s="4">
         <v>0.60763888888888895</v>
@@ -37950,7 +37952,7 @@
         <v>43922</v>
       </c>
       <c r="B2299" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2299" s="4">
         <v>0.35416666666666669</v>
@@ -37995,7 +37997,7 @@
         <v>43922</v>
       </c>
       <c r="B2302" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2302" s="4">
         <v>0.40625</v>
@@ -38025,7 +38027,7 @@
         <v>43922</v>
       </c>
       <c r="B2304" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2304" s="4">
         <v>0.44097222222222227</v>
@@ -38070,7 +38072,7 @@
         <v>43922</v>
       </c>
       <c r="B2307" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2307" s="4">
         <v>0.625</v>
@@ -38239,7 +38241,7 @@
         <v>43924</v>
       </c>
       <c r="B2318" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2318" s="4">
         <v>0.5625</v>
@@ -38284,7 +38286,7 @@
         <v>43924</v>
       </c>
       <c r="B2321" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2321" s="4">
         <v>0.62152777777777779</v>
@@ -38301,7 +38303,7 @@
         <v>43927</v>
       </c>
       <c r="B2322" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2322" s="4">
         <v>0.35416666666666669</v>
@@ -38331,7 +38333,7 @@
         <v>43927</v>
       </c>
       <c r="B2324" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2324" s="4">
         <v>0.39583333333333331</v>
@@ -38361,7 +38363,7 @@
         <v>43927</v>
       </c>
       <c r="B2326" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2326" s="4">
         <v>0.43055555555555558</v>
@@ -38406,7 +38408,7 @@
         <v>43927</v>
       </c>
       <c r="B2329" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2329" s="4">
         <v>0.64583333333333337</v>
@@ -38436,7 +38438,7 @@
         <v>43927</v>
       </c>
       <c r="B2331" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2331" s="4">
         <v>0.68402777777777779</v>
@@ -38603,7 +38605,7 @@
         <v>43928</v>
       </c>
       <c r="B2342" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C2342" s="4">
         <v>0.625</v>
@@ -38618,7 +38620,7 @@
         <v>43928</v>
       </c>
       <c r="B2343" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2343" s="4">
         <v>0.64583333333333337</v>
@@ -38665,7 +38667,7 @@
         <v>43929</v>
       </c>
       <c r="B2346" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C2346" s="4">
         <v>0.36458333333333331</v>
@@ -38770,7 +38772,7 @@
         <v>43929</v>
       </c>
       <c r="B2353" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2353" s="4">
         <v>0.50694444444444442</v>
@@ -38830,7 +38832,7 @@
         <v>43929</v>
       </c>
       <c r="B2357" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C2357" s="4">
         <v>0.61111111111111105</v>
@@ -38845,7 +38847,7 @@
         <v>43929</v>
       </c>
       <c r="B2358" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2358" s="4">
         <v>0.63194444444444442</v>
@@ -38892,7 +38894,7 @@
         <v>43930</v>
       </c>
       <c r="B2361" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2361" s="4">
         <v>0.36805555555555558</v>
@@ -38952,7 +38954,7 @@
         <v>43930</v>
       </c>
       <c r="B2365" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2365" s="4">
         <v>0.47916666666666669</v>
@@ -39012,7 +39014,7 @@
         <v>43930</v>
       </c>
       <c r="B2369" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2369" s="4">
         <v>0.52777777777777779</v>
@@ -39042,7 +39044,7 @@
         <v>43930</v>
       </c>
       <c r="B2371" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2371" s="4">
         <v>0.60763888888888895</v>
@@ -39057,7 +39059,7 @@
         <v>43930</v>
       </c>
       <c r="B2372" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C2372" s="4">
         <v>0.61805555555555558</v>
@@ -39072,7 +39074,7 @@
         <v>43930</v>
       </c>
       <c r="B2373" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2373" s="4">
         <v>0.6875</v>
@@ -39087,7 +39089,7 @@
         <v>43930</v>
       </c>
       <c r="B2374" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C2374" s="4">
         <v>0.70138888888888884</v>
@@ -39132,7 +39134,7 @@
         <v>43935</v>
       </c>
       <c r="B2377" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2377" s="4">
         <v>0.39583333333333331</v>
@@ -39162,7 +39164,7 @@
         <v>43935</v>
       </c>
       <c r="B2379" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2379" s="4">
         <v>0.48958333333333331</v>
@@ -39192,7 +39194,7 @@
         <v>43935</v>
       </c>
       <c r="B2381" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2381" s="4">
         <v>0.61111111111111105</v>
@@ -39665,7 +39667,7 @@
         <v>43941</v>
       </c>
       <c r="B2412" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2412" s="4">
         <v>0.69097222222222221</v>
@@ -39787,7 +39789,7 @@
         <v>43942</v>
       </c>
       <c r="B2420" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2420" s="4">
         <v>0.55555555555555558</v>
@@ -39847,7 +39849,7 @@
         <v>43942</v>
       </c>
       <c r="B2424" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2424" s="4">
         <v>0.70833333333333337</v>
@@ -40001,7 +40003,7 @@
         <v>43944</v>
       </c>
       <c r="B2434" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C2434" s="4">
         <v>0.45833333333333331</v>
@@ -44077,4 +44079,1567 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CF9B97-D5AF-42C8-B529-737803EFFBA9}">
+  <dimension ref="A1:B193"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43641</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43642</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43643</v>
+      </c>
+      <c r="B4" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>43644</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>43648</v>
+      </c>
+      <c r="B7" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43649</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43650</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43651</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B14" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B15" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B16" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B17" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>43663</v>
+      </c>
+      <c r="B18" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B19" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B20" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B21" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B22" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B23" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B24" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B25" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B26" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>43676</v>
+      </c>
+      <c r="B27" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B28" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B29" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B30" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B31" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>43683</v>
+      </c>
+      <c r="B32" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>43684</v>
+      </c>
+      <c r="B33" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B34" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>43686</v>
+      </c>
+      <c r="B35" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>43689</v>
+      </c>
+      <c r="B36" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>43690</v>
+      </c>
+      <c r="B37" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B38" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>43710</v>
+      </c>
+      <c r="B39" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>43711</v>
+      </c>
+      <c r="B40" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>43712</v>
+      </c>
+      <c r="B41" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B42" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B43" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B44" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43718</v>
+      </c>
+      <c r="B45" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B46" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>43721</v>
+      </c>
+      <c r="B47" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43724</v>
+      </c>
+      <c r="B48" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>43725</v>
+      </c>
+      <c r="B49" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>43726</v>
+      </c>
+      <c r="B50" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>43727</v>
+      </c>
+      <c r="B51" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>43728</v>
+      </c>
+      <c r="B52" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>43731</v>
+      </c>
+      <c r="B53" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B54" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>43734</v>
+      </c>
+      <c r="B55" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>43735</v>
+      </c>
+      <c r="B56" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>43738</v>
+      </c>
+      <c r="B57" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>43739</v>
+      </c>
+      <c r="B58" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>43740</v>
+      </c>
+      <c r="B59" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>43741</v>
+      </c>
+      <c r="B60" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>43742</v>
+      </c>
+      <c r="B61" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>43745</v>
+      </c>
+      <c r="B62" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>43746</v>
+      </c>
+      <c r="B63" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>43747</v>
+      </c>
+      <c r="B64" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>43748</v>
+      </c>
+      <c r="B65" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>43749</v>
+      </c>
+      <c r="B66" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>43752</v>
+      </c>
+      <c r="B67" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>43753</v>
+      </c>
+      <c r="B68" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>43754</v>
+      </c>
+      <c r="B69" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>43755</v>
+      </c>
+      <c r="B70" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>43756</v>
+      </c>
+      <c r="B71" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>43759</v>
+      </c>
+      <c r="B72" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>43760</v>
+      </c>
+      <c r="B73" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>43761</v>
+      </c>
+      <c r="B74" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>43762</v>
+      </c>
+      <c r="B75" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>43763</v>
+      </c>
+      <c r="B76" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>43766</v>
+      </c>
+      <c r="B77" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>43767</v>
+      </c>
+      <c r="B78" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>43768</v>
+      </c>
+      <c r="B79" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>43769</v>
+      </c>
+      <c r="B80" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>43773</v>
+      </c>
+      <c r="B81" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>43774</v>
+      </c>
+      <c r="B82" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>43775</v>
+      </c>
+      <c r="B83" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>43776</v>
+      </c>
+      <c r="B84" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>43777</v>
+      </c>
+      <c r="B85" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>43780</v>
+      </c>
+      <c r="B86" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>43781</v>
+      </c>
+      <c r="B87" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>43782</v>
+      </c>
+      <c r="B88" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>43783</v>
+      </c>
+      <c r="B89" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>43784</v>
+      </c>
+      <c r="B90" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>43787</v>
+      </c>
+      <c r="B91" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>43788</v>
+      </c>
+      <c r="B92" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>43789</v>
+      </c>
+      <c r="B93" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>43790</v>
+      </c>
+      <c r="B94" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>43791</v>
+      </c>
+      <c r="B95" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>43794</v>
+      </c>
+      <c r="B96" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>43795</v>
+      </c>
+      <c r="B97" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>43796</v>
+      </c>
+      <c r="B98" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>43797</v>
+      </c>
+      <c r="B99" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>43798</v>
+      </c>
+      <c r="B100" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>43801</v>
+      </c>
+      <c r="B101" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>43802</v>
+      </c>
+      <c r="B102" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>43803</v>
+      </c>
+      <c r="B103" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>43804</v>
+      </c>
+      <c r="B104" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>43808</v>
+      </c>
+      <c r="B105" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>43809</v>
+      </c>
+      <c r="B106" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>43810</v>
+      </c>
+      <c r="B107" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>43811</v>
+      </c>
+      <c r="B108" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>43812</v>
+      </c>
+      <c r="B109" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>43815</v>
+      </c>
+      <c r="B110" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>43816</v>
+      </c>
+      <c r="B111" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>43817</v>
+      </c>
+      <c r="B112" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>43818</v>
+      </c>
+      <c r="B113" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>43819</v>
+      </c>
+      <c r="B114" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>43822</v>
+      </c>
+      <c r="B115" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>43823</v>
+      </c>
+      <c r="B116" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>43837</v>
+      </c>
+      <c r="B117" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>43838</v>
+      </c>
+      <c r="B118" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>43839</v>
+      </c>
+      <c r="B119" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>43840</v>
+      </c>
+      <c r="B120" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>43843</v>
+      </c>
+      <c r="B121" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>43844</v>
+      </c>
+      <c r="B122" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>43845</v>
+      </c>
+      <c r="B123" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>43846</v>
+      </c>
+      <c r="B124" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>43847</v>
+      </c>
+      <c r="B125" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>43850</v>
+      </c>
+      <c r="B126" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>43851</v>
+      </c>
+      <c r="B127" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>43852</v>
+      </c>
+      <c r="B128" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>43853</v>
+      </c>
+      <c r="B129" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>43854</v>
+      </c>
+      <c r="B130" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>43857</v>
+      </c>
+      <c r="B131" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>43858</v>
+      </c>
+      <c r="B132" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>43859</v>
+      </c>
+      <c r="B133" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>43860</v>
+      </c>
+      <c r="B134" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>43861</v>
+      </c>
+      <c r="B135" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>43864</v>
+      </c>
+      <c r="B136" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>43865</v>
+      </c>
+      <c r="B137" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>43866</v>
+      </c>
+      <c r="B138" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>43867</v>
+      </c>
+      <c r="B139" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B140" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B141" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B142" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>43873</v>
+      </c>
+      <c r="B143" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>43874</v>
+      </c>
+      <c r="B144" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>43875</v>
+      </c>
+      <c r="B145" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B146" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>43879</v>
+      </c>
+      <c r="B147" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>43880</v>
+      </c>
+      <c r="B148" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>43881</v>
+      </c>
+      <c r="B149" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>43882</v>
+      </c>
+      <c r="B150" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>43885</v>
+      </c>
+      <c r="B151" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>43886</v>
+      </c>
+      <c r="B152" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B153" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>43888</v>
+      </c>
+      <c r="B154" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B155" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>43892</v>
+      </c>
+      <c r="B156" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>43893</v>
+      </c>
+      <c r="B157" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>43894</v>
+      </c>
+      <c r="B158" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>43895</v>
+      </c>
+      <c r="B159" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>43896</v>
+      </c>
+      <c r="B160" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>43899</v>
+      </c>
+      <c r="B161" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>43900</v>
+      </c>
+      <c r="B162" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>43901</v>
+      </c>
+      <c r="B163" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>43902</v>
+      </c>
+      <c r="B164" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>43903</v>
+      </c>
+      <c r="B165" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>43906</v>
+      </c>
+      <c r="B166" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>43907</v>
+      </c>
+      <c r="B167" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>43908</v>
+      </c>
+      <c r="B168" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B169" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B170" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>43913</v>
+      </c>
+      <c r="B171" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>43914</v>
+      </c>
+      <c r="B172" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>43915</v>
+      </c>
+      <c r="B173" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>43916</v>
+      </c>
+      <c r="B174" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>43917</v>
+      </c>
+      <c r="B175" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>43920</v>
+      </c>
+      <c r="B176" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>43921</v>
+      </c>
+      <c r="B177" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>43922</v>
+      </c>
+      <c r="B178" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>43923</v>
+      </c>
+      <c r="B179" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>43924</v>
+      </c>
+      <c r="B180" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>43927</v>
+      </c>
+      <c r="B181" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>43928</v>
+      </c>
+      <c r="B182" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>43929</v>
+      </c>
+      <c r="B183" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>43930</v>
+      </c>
+      <c r="B184" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>43935</v>
+      </c>
+      <c r="B185" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>43936</v>
+      </c>
+      <c r="B186" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>43937</v>
+      </c>
+      <c r="B187" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>43938</v>
+      </c>
+      <c r="B188" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>43941</v>
+      </c>
+      <c r="B189" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>43942</v>
+      </c>
+      <c r="B190" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>43943</v>
+      </c>
+      <c r="B191" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>43944</v>
+      </c>
+      <c r="B192" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>43945</v>
+      </c>
+      <c r="B193" s="5">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>